--- a/WATER BILL (Autosaved).xlsx
+++ b/WATER BILL (Autosaved).xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
     <sheet name="2023" sheetId="2" r:id="rId2"/>
+    <sheet name="2024" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
   <si>
     <t>Alfred</t>
   </si>
@@ -1041,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1468,7 @@
         <v>45256</v>
       </c>
       <c r="J14">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="L14">
         <v>54</v>
@@ -1521,25 +1522,39 @@
         <v>17</v>
       </c>
     </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I17" s="11">
+        <v>45329</v>
+      </c>
+      <c r="K17">
+        <v>74</v>
+      </c>
+      <c r="L17">
+        <v>113</v>
+      </c>
+      <c r="M17">
+        <v>170</v>
+      </c>
+    </row>
     <row r="18" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>12</v>
       </c>
       <c r="J18">
         <f>SUM(J4:J16)</f>
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="K18">
-        <f>SUM(K4:K16)</f>
-        <v>200</v>
+        <f>SUM(K4:K17)</f>
+        <v>274</v>
       </c>
       <c r="L18">
         <f>SUM(L4:L17)</f>
-        <v>687</v>
+        <v>800</v>
       </c>
       <c r="M18">
-        <f>SUM(M4:M16)</f>
-        <v>992</v>
+        <f>SUM(M4:M17)</f>
+        <v>1162</v>
       </c>
     </row>
     <row r="19" spans="9:14" x14ac:dyDescent="0.25">
@@ -1548,23 +1563,23 @@
       </c>
       <c r="J19">
         <f>C15+J3-J18</f>
-        <v>-27.084587912087841</v>
+        <v>25.915412087912159</v>
       </c>
       <c r="K19">
         <f>D15+K3-K18</f>
-        <v>74.421199633699644</v>
+        <v>0.42119963369964353</v>
       </c>
       <c r="L19">
         <f>E15+L3-L18</f>
-        <v>112.84701465201465</v>
+        <v>-0.15298534798535002</v>
       </c>
       <c r="M19">
         <f>F15+M3-M18</f>
-        <v>169.0594505494505</v>
+        <v>-0.94054945054949712</v>
       </c>
       <c r="N19">
         <f>SUM(J19:M19)</f>
-        <v>329.24307692307696</v>
+        <v>25.243076923076956</v>
       </c>
     </row>
   </sheetData>
@@ -1575,4 +1590,222 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="I1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="11">
+        <v>45339</v>
+      </c>
+      <c r="J3">
+        <f>'2023'!J19</f>
+        <v>25.915412087912159</v>
+      </c>
+      <c r="K3">
+        <f>'2023'!K19</f>
+        <v>0.42119963369964353</v>
+      </c>
+      <c r="L3">
+        <f>'2023'!L19</f>
+        <v>-0.15298534798535002</v>
+      </c>
+      <c r="M3">
+        <f>'2023'!M19</f>
+        <v>-0.94054945054949712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B3:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C3:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D3:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E3:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>SUM(F3:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I17" s="11"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <f>C15+J3-J18</f>
+        <v>25.915412087912159</v>
+      </c>
+      <c r="K19">
+        <f>D15+K3-K18</f>
+        <v>0.42119963369964353</v>
+      </c>
+      <c r="L19">
+        <f>E15+L3-L18</f>
+        <v>-0.15298534798535002</v>
+      </c>
+      <c r="M19">
+        <f>F15+M3-M18</f>
+        <v>-0.94054945054949712</v>
+      </c>
+      <c r="N19">
+        <f>SUM(J19:M19)</f>
+        <v>25.243076923076956</v>
+      </c>
+    </row>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>9</v>
+      </c>
+      <c r="S21">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>